--- a/src/datasets/xlsx/barchart.xlsx
+++ b/src/datasets/xlsx/barchart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lepre\progetti\Data_vis_project_2022\src\datasets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lepre\Desktop\camillina03.github.io-main\camillina03.github.io-main\src\datasets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C8BD8-EE42-4CBB-87B7-27EFF0539EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC4E63D-897D-4508-8A33-633D0B574C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E59" sqref="D2:E59"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,8 +616,8 @@
         <v>2.7958993476234855</v>
       </c>
       <c r="E2" s="2">
-        <f>(B2*100)/45185068</f>
-        <v>6.6393614810981369E-2</v>
+        <f>(B2*100)/59185068</f>
+        <v>5.0688460812446816E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,8 +635,8 @@
         <v>0.57118254879448904</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E59" si="1">(B3*100)/45185068</f>
-        <v>8.8082195649235279E-2</v>
+        <f t="shared" ref="E3:E59" si="1">(B3*100)/59185068</f>
+        <v>6.7246691344512777E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>0.14385283209045963</v>
+        <v>0.10982499842696809</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>0.13500035011566211</v>
+        <v>0.10306653698530853</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>4.4262409873987571E-3</v>
+        <v>3.3792307208297878E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>5.5328012342484467E-2</v>
+        <v>4.2240384010372348E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>0.60196877428623097</v>
+        <v>0.45957537803285115</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0.10047567041395179</v>
+        <v>7.6708537362836185E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>35.409927899190059</v>
+        <v>27.033845766638301</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>2.2131204936993786E-4</v>
+        <v>1.6896153604148938E-4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>0.5474153541165413</v>
+        <v>0.41792635939862399</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>7.0819855798380116E-3</v>
+        <v>5.4067691533276601E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>7.7459217279478256</v>
+        <v>5.9136537614521281</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0.10678306382099502</v>
+        <v>8.1523941140018624E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>0.22131204936993787</v>
+        <v>0.16896153604148939</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>0.21467268788883972</v>
+        <v>0.1638926899602447</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>0.89985479273816737</v>
+        <v>0.6869976055446958</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>2.7664006171242232</v>
+        <v>2.1120192005186174</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>4.7836599471312073</v>
+        <v>3.6521036015367931</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>0.5854810266081707</v>
+        <v>0.44698774359776017</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>0.11065602468496893</v>
+        <v>8.4480768020744695E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>4.4262409873987573E-4</v>
+        <v>3.3792307208297876E-4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>4.6187824703506033</v>
+        <v>3.5262272571858833</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>4.4262409873987573E-4</v>
+        <v>3.3792307208297876E-4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>1.1065602468496893E-3</v>
+        <v>8.4480768020744695E-4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>4.4262409873987573E-4</v>
+        <v>3.3792307208297876E-4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>0.3213450956851498</v>
+        <v>0.24533215033224259</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>5.5532836644176342</v>
+        <v>4.2396757911978744</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
-        <v>0.9527483725375826</v>
+        <v>0.72737941265861183</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>0.35188615849820121</v>
+        <v>0.26864884230596814</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
-        <v>0.77459217279478254</v>
+        <v>0.5913653761452129</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
-        <v>1.1065602468496893E-3</v>
+        <v>8.4480768020744695E-4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
-        <v>0.22131204936993787</v>
+        <v>0.16896153604148939</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>3.319680740549068E-3</v>
+        <v>2.5344230406223406E-3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>2.2131204936993786E-4</v>
+        <v>1.6896153604148938E-4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>6.6393614810981365E-4</v>
+        <v>5.0688460812446819E-4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
-        <v>1.1065602468496893E-3</v>
+        <v>8.4480768020744695E-4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
-        <v>0.43930441799932668</v>
+        <v>0.33538864904235643</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
-        <v>2.6336133875022608E-2</v>
+        <v>2.0106422788937237E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
-        <v>2.2131204936993786E-4</v>
+        <v>1.6896153604148938E-4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
-        <v>1.8811524196444718E-2</v>
+        <v>1.4361730563526598E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
-        <v>3.3196807405490684E-2</v>
+        <v>2.5344230406223408E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
-        <v>1.2327081149905539</v>
+        <v>0.94111575575109585</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
-        <v>6.2055898643330583</v>
+        <v>4.7376814706033628</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
-        <v>0.12172162715346584</v>
+        <v>9.2928844822819157E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
-        <v>1.3190198142448297</v>
+        <v>1.0070107548072766</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
-        <v>0.3319680740549068</v>
+        <v>0.25344230406223406</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
-        <v>0.11065602468496893</v>
+        <v>8.4480768020744695E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
-        <v>2.6336133875022608E-2</v>
+        <v>2.0106422788937237E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
-        <v>0.12614786814086459</v>
+        <v>9.6308075543648952E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1556,18 +1556,18 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>9000000</v>
+        <v>23000000</v>
       </c>
       <c r="C52">
         <v>188793000</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="0"/>
-        <v>4.7671258997950137</v>
+        <v>12.182655077253923</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
-        <v>19.918084443294408</v>
+        <v>38.861153289542557</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
-        <v>1.3278722962196273E-3</v>
+        <v>1.0137692162489364E-3</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
-        <v>2.2131204936993786E-4</v>
+        <v>1.6896153604148938E-4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
-        <v>1.6819715752115279E-2</v>
+        <v>1.2841076739153193E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="E56" s="2">
         <f t="shared" si="1"/>
-        <v>4.4262409873987573E-4</v>
+        <v>3.3792307208297876E-4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="E57" s="2">
         <f t="shared" si="1"/>
-        <v>3.6717882110966396E-2</v>
+        <v>2.8032408444643504E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="E58" s="2">
         <f t="shared" si="1"/>
-        <v>0.51980003659616048</v>
+        <v>0.39684333893136692</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="E59" s="2">
         <f t="shared" si="1"/>
-        <v>2.1168497522234557</v>
+        <v>1.616117092236846</v>
       </c>
     </row>
   </sheetData>
